--- a/resource/茶叶信息.xlsx
+++ b/resource/茶叶信息.xlsx
@@ -370,12 +370,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -390,9 +396,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -675,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="K72" sqref="K72"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -733,7 +740,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J7" t="s">
@@ -741,12 +748,12 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -766,7 +773,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -776,7 +783,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -796,12 +803,12 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -814,7 +821,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -827,7 +834,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -876,7 +883,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="A33" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -922,7 +929,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="A42" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -932,7 +939,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="A44" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -942,7 +949,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="A46" s="2" t="s">
         <v>48</v>
       </c>
     </row>
@@ -960,7 +967,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="A49" s="2" t="s">
         <v>51</v>
       </c>
     </row>
@@ -970,7 +977,7 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="A51" s="2" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1081,27 +1088,27 @@
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+      <c r="A73" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+      <c r="A74" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+      <c r="A75" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+      <c r="A76" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+      <c r="A77" s="2" t="s">
         <v>69</v>
       </c>
       <c r="J77" t="s">
